--- a/error_scores/error_scores_vertebra-column-2c.xlsx
+++ b/error_scores/error_scores_vertebra-column-2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PBFI FuzzyCMeans</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI FuzzyCMeans</t>
   </si>
 </sst>
 </file>
@@ -386,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,14 +402,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -422,14 +419,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.9741935483870968</v>
+      </c>
       <c r="C3">
         <v>0.9741935483870968</v>
       </c>
@@ -439,14 +436,14 @@
       <c r="E3">
         <v>0.964516129032258</v>
       </c>
-      <c r="F3">
-        <v>0.9741935483870968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.9193548387096774</v>
+      </c>
       <c r="C4">
         <v>0.9193548387096774</v>
       </c>
@@ -456,14 +453,14 @@
       <c r="E4">
         <v>0.8870967741935484</v>
       </c>
-      <c r="F4">
-        <v>0.9193548387096774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.8258064516129032</v>
+      </c>
       <c r="C5">
         <v>0.8258064516129032</v>
       </c>
@@ -473,14 +470,14 @@
       <c r="E5">
         <v>0.7741935483870968</v>
       </c>
-      <c r="F5">
-        <v>0.8258064516129032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.6225806451612903</v>
+      </c>
       <c r="C6">
         <v>0.6225806451612903</v>
       </c>
@@ -490,14 +487,14 @@
       <c r="E6">
         <v>0.6258064516129033</v>
       </c>
-      <c r="F6">
-        <v>0.6225806451612903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.5774193548387097</v>
+      </c>
       <c r="C7">
         <v>0.6064516129032258</v>
       </c>
@@ -507,14 +504,14 @@
       <c r="E7">
         <v>0.5870967741935483</v>
       </c>
-      <c r="F7">
-        <v>0.5774193548387097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.5580645161290323</v>
+      </c>
       <c r="C8">
         <v>0.5580645161290323</v>
       </c>
@@ -523,9 +520,6 @@
       </c>
       <c r="E8">
         <v>0.5838709677419355</v>
-      </c>
-      <c r="F8">
-        <v>0.5580645161290323</v>
       </c>
     </row>
   </sheetData>
